--- a/汽柴煤油2.0/eta/TA-EG价差_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/TA-EG价差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>191.0873</v>
+        <v>865.9896</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>405.9167</v>
+        <v>420.4286</v>
       </c>
       <c r="C3" t="n">
-        <v>419.8851</v>
+        <v>447.9777</v>
       </c>
     </row>
     <row r="4">
